--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\junho\Desktop\FCC\FCC Project\Frontend\Random Quote Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F98F1E6-2238-4A7B-AA5D-8D446F2F3A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32432FCE-9B25-48A1-846E-E2605D6E4CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <t>Objective:</t>
@@ -627,34 +627,13 @@
     <t>Plan to build a simple React APP using Redux store to store data.</t>
   </si>
   <si>
-    <t>also, provide a way for the user to keyin their own code and build into the quote database without messing with original quote databse</t>
-  </si>
-  <si>
     <t>redux</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
-    <t xml:space="preserve">three state property </t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>original quote database</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>user keyin quote database</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t>original + user keyin quote database</t>
+    <t>as no user input is required, a simple state is enough</t>
   </si>
 </sst>
 </file>
@@ -1028,82 +1007,82 @@
     <col min="2" max="2" width="117.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="220.8">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="172.8">
+    <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="409.6">
+    <row r="5" spans="2:2" ht="69">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="153">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="181.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="181.8">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="195.6">
+    <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="196.2">
+    <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="208.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="235.8">
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="292.2">
+    <row r="21" spans="2:2" ht="28.8">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="292.2">
+    <row r="23" spans="2:2" ht="28.8">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="403.8">
+    <row r="25" spans="2:2" ht="28.8">
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="332.4">
+    <row r="27" spans="2:2" ht="28.2">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="360">
+    <row r="29" spans="2:2" ht="28.8">
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="151.80000000000001">
+    <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1119,57 +1098,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BB9780-D7EC-439E-BE67-B062DE2E5038}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
